--- a/SAO_SEPE.xlsx
+++ b/SAO_SEPE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B9B1120-B837-4F18-9958-B5E99D78F111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23382675-6CA3-4667-825A-A22CBFA164D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1294,7 +1294,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{CE3EC9A3-CA09-44DA-83AD-391DD20A94F6}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{D4AD9C79-F68E-48A7-9E77-00E1DC3D55AB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1324,10 +1324,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1AE76C5-2F77-4D0C-967B-F10ECA9D8658}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A825A3-9ADC-42C4-B129-275EFEB92A7C}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,7 +1365,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156D7A49-B596-46CF-AB04-FADA58961093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636B5350-7F9E-4BC5-9B07-B280B8928D9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1428,7 +1428,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA802FB-8DDF-4C02-B1BD-63C5FDC31A46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04D82C8-B0FE-4FF7-8784-859560ACDD59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1447,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11281A7F-3E14-338C-FD6F-AB292317B696}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A86A184A-F6EE-CA89-86A6-D943B54037BC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1496,7 +1496,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B62D8E35-1D3A-EE3A-C3BB-F3B9E36540B9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE868ED-02C0-3A4A-06C2-7A2B87C88323}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1515,7 +1515,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5902A338-5D11-1D1C-EBBA-A3931CFD79CD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFB0EA2-739D-C579-FE16-101D27A23A91}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1546,7 +1546,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483C53A3-A57C-8400-D53E-6AED6271720F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B5FB236-17D9-C50C-3A3D-33C5321D0533}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1577,7 +1577,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{806A643B-1375-9A66-AF58-0BD4A1934310}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F975FB-D42F-8932-F1A8-8ADDEC3E2008}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1620,7 +1620,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F541A4C-73C6-4BBC-A5BC-85A29C00AF2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1A9CADF-CB4D-42AA-81E6-2E41859398A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1658,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D53246-88E8-4870-8729-C2D2470294A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A05E2E9-4CFD-4D46-B875-E8EE0A41E557}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1701,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094C6C28-810D-4D36-91B3-D853574FEF00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FAE3C8-E624-482D-9E60-FC83437800C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +2014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5674B88-0518-4B3A-B5F1-3C8DC3F4C94C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFF733E-8C72-46A8-AC9D-8DDA93D723C2}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SAO_SEPE.xlsx
+++ b/SAO_SEPE.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23382675-6CA3-4667-825A-A22CBFA164D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{692E231D-99A5-4606-AA99-4A79AFC37A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="TCA" sheetId="5" r:id="rId6"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="327">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1008,12 +1007,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1274,27 +1267,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{D4AD9C79-F68E-48A7-9E77-00E1DC3D55AB}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{F08A0965-FE25-4E2B-B6F1-ADA740B23E88}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1324,10 +1302,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A825A3-9ADC-42C4-B129-275EFEB92A7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9781275C-A4B8-44AD-B3CC-D8FD722921B0}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,7 +1343,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636B5350-7F9E-4BC5-9B07-B280B8928D9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93658BE7-0353-4C2C-B7EF-735CCB951A66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1428,7 +1406,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04D82C8-B0FE-4FF7-8784-859560ACDD59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E578F1A3-F096-4E66-9A57-6B27628A1D53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1425,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A86A184A-F6EE-CA89-86A6-D943B54037BC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C61354-12DB-C1A3-8CFD-5990E1DEE8E1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1496,7 +1474,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE868ED-02C0-3A4A-06C2-7A2B87C88323}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F993CDAF-0BF9-8991-2DE4-2B558F8E3232}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1515,7 +1493,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFB0EA2-739D-C579-FE16-101D27A23A91}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7003EAF-1289-163A-7DD8-065D95BAED43}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1546,7 +1524,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B5FB236-17D9-C50C-3A3D-33C5321D0533}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B1E9A6-6240-716E-DDFD-C90B1346AB93}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1577,7 +1555,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F975FB-D42F-8932-F1A8-8ADDEC3E2008}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102D3AD1-492A-E61C-93AE-27806B1346AF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1620,7 +1598,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1A9CADF-CB4D-42AA-81E6-2E41859398A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC5DCBDA-3FA0-4D19-844E-44723FE603D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1636,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A05E2E9-4CFD-4D46-B875-E8EE0A41E557}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD8CA7F-AA77-497A-AA7F-E2A582AFD705}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1679,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FAE3C8-E624-482D-9E60-FC83437800C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F9CA2E-CEBE-4D79-A391-F3B02C937B73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +1992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFF733E-8C72-46A8-AC9D-8DDA93D723C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4600AA84-40A6-4206-BF55-2C229CF47EB5}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2026,98 +2004,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="32"/>
+    <col min="6" max="6" width="2" style="32" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="32" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5815,52 +5793,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="E1" s="32">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" s="35">
-        <v>75</v>
-      </c>
-      <c r="C2" s="33">
-        <v>4.9596614204470311E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SAO_SEPE.xlsx
+++ b/SAO_SEPE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{692E231D-99A5-4606-AA99-4A79AFC37A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89CE3004-120E-44EE-801E-2D9CEE362412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1272,7 +1272,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{F08A0965-FE25-4E2B-B6F1-ADA740B23E88}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{68BD196C-A937-407B-9B58-101E478D26EA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1302,10 +1302,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9781275C-A4B8-44AD-B3CC-D8FD722921B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE59476-EA38-4FFB-B604-0F2D315E3510}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1343,7 +1343,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93658BE7-0353-4C2C-B7EF-735CCB951A66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1CFD57-A48F-4243-9DFE-4C3E8F6B3DA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,7 +1406,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E578F1A3-F096-4E66-9A57-6B27628A1D53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5643D6-B3E5-4502-96F5-67D1831ED836}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,7 +1425,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C61354-12DB-C1A3-8CFD-5990E1DEE8E1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E678D7-6159-08AF-C9A0-F9473C4854D1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1474,7 +1474,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F993CDAF-0BF9-8991-2DE4-2B558F8E3232}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78CC99B4-55CD-64BA-111B-2A42E44D0341}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1493,7 +1493,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7003EAF-1289-163A-7DD8-065D95BAED43}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ABADA76-F215-D7EC-C305-294F817A67F7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1524,7 +1524,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B1E9A6-6240-716E-DDFD-C90B1346AB93}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032BCD39-0182-DC08-4CB3-1FFCFEE6D119}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1555,7 +1555,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102D3AD1-492A-E61C-93AE-27806B1346AF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E9A8B5-BEC9-0A28-85F8-7BDF001EBCA5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1598,7 +1598,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC5DCBDA-3FA0-4D19-844E-44723FE603D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8BFD218-6282-423A-B070-3ACB8C17F42D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1636,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD8CA7F-AA77-497A-AA7F-E2A582AFD705}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56509930-06CD-4D1D-80EC-2F7E97ED7BBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,50 +1661,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F9CA2E-CEBE-4D79-A391-F3B02C937B73}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1992,7 +1948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4600AA84-40A6-4206-BF55-2C229CF47EB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E400118E-99F8-4040-8B5A-39D746447D64}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
